--- a/RA.xlsx
+++ b/RA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t xml:space="preserve">SEVERITY</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t xml:space="preserve">to reduce the likely-hood of compatibility issues and ensure all work and workers have access to the latest features.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error/Bug Fixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a new user of Java it is likely that I will run into many errors and bugs as I code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make use of my trainer while I can and also refer to recordings.  Also use the internet to search for errors as I am unlikely to the first person to encounter them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To allow for continuous work without reaching a point where any issues cannot be fixed.</t>
   </si>
   <si>
     <t xml:space="preserve">Unlikely</t>
@@ -377,23 +389,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="9.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="9.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="2.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="12" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="12" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,20 +637,34 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>20</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>1</v>
@@ -656,30 +682,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="L1:P1"/>
